--- a/产品界面化/左连生.xlsx
+++ b/产品界面化/左连生.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -45,11 +45,29 @@
     <t>学习springboot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.微服务灰度发布机制
+2.GitHub
+3.Swagger
+4.增加在td_s_commpara表中增加字段的sql脚本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.上午初见微服务灰度发布机制介绍，初步熟悉了Marathon-LB的作用和新增http-header的配置方式
+2.GitHub学习，在知乎上看了一个教程，今晚就可以拿来试试水。
+3.初见Swagger，熟悉Swagger作用，熟悉在SpringBoot中添加Swagger支持。
+4.完善SQL脚本，增加在td_s_commpara表中增加字段的sql脚本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -106,6 +124,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -125,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -200,6 +221,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -235,6 +273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,6 +512,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4">
+        <v>42976</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/产品界面化/左连生.xlsx
+++ b/产品界面化/左连生.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -57,10 +57,6 @@
 2.GitHub学习，在知乎上看了一个教程，今晚就可以拿来试试水。
 3.初见Swagger，熟悉Swagger作用，熟悉在SpringBoot中添加Swagger支持。
 4.完善SQL脚本，增加在td_s_commpara表中增加字段的sql脚本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,9 +518,7 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
